--- a/FishShoalComparison.xlsx
+++ b/FishShoalComparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\source\repos\FishShoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592C11C-65EE-407A-81E6-E3BB2877ED1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995E977-7D8F-459E-A398-CCF3DD510E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1882734B-49EC-4B60-B54B-46A36DE7721F}"/>
   </bookViews>
@@ -109,14 +109,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,6 +133,2224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> graph of number of FPS against number of fish</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.85853018372703416"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>307200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>409600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>716800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1536000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2048000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A07D-4B7A-A412-1FDD8F6F392F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU (CPU draw)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$4:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A07D-4B7A-A412-1FDD8F6F392F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$4:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A07D-4B7A-A412-1FDD8F6F392F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468324680"/>
+        <c:axId val="468325008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468324680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> of fish</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468325008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468325008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468324680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> graph of number of FPS against number of fish</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.85853018372703416"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SDS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>307200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>409600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>512000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>716800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1536000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2048000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-1B16-4977-A203-7782543DCF76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Naive</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-1B16-4977-A203-7782543DCF76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468324680"/>
+        <c:axId val="468325008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468324680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> of fish</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468325008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468325008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468324680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE63FDAF-3D9A-42F8-8620-BE2D84BF31C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC67ABE9-9A47-4663-8B6E-7D7F8421EDF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92104A1E-DFDF-46B3-B140-2A4B2D5BD491}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,27 +2667,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1036,5 +3254,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>